--- a/output/dfs-bfs-results.xlsx
+++ b/output/dfs-bfs-results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddffad9aba1e171b/Documents/jaist/substudy/rush_hour_heuristic2_stack/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddffad9aba1e171b/Documents/GitHub/rush-hour-puzzle/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BC23980E-BAC7-4FA8-869F-E74B793B0390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276"/>
+    <workbookView minimized="1" xWindow="735" yWindow="735" windowWidth="15390" windowHeight="9533" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dfs-bfs-results" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -913,52 +913,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1315,14 +1315,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -1332,49 +1332,49 @@
   <sheetData>
     <row r="1" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.7">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="11"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B3" s="4"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1382,639 +1382,639 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.7">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="10">
         <v>133</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="7">
         <v>51</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="7">
         <v>125</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="10">
         <v>1261</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="7">
         <v>946</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="7">
         <v>22</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="7">
         <v>2126</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="7">
         <v>1078</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="8">
         <v>2196</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.7">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="10">
         <v>20</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="7">
         <v>24</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="7">
         <v>73</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="10">
         <v>1123</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="7">
         <v>757</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="7">
         <v>23</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="7">
         <v>1166</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="7">
         <v>798</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="8">
         <v>2579</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.7">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="10">
         <v>26</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="7">
         <v>64</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="7">
         <v>307</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="10">
         <v>1423</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="7">
         <v>2526</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="7">
         <v>10</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="7">
         <v>1425</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="7">
         <v>2528</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="8">
         <v>7159</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.7">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="10">
         <v>9</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="7">
         <v>17</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="7">
         <v>45</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="10">
         <v>549</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="7">
         <v>991</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="7">
         <v>13</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="7">
         <v>555</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="7">
         <v>1000</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="8">
         <v>1803</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.7">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="10">
         <v>3</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="7">
         <v>1</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="7">
         <v>8</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="10">
         <v>123</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="7">
         <v>75</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="7">
         <v>11</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="7">
         <v>133</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="7">
         <v>82</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="8">
         <v>369</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.7">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="10">
         <v>7</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="7">
         <v>19</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="7">
         <v>45</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="10">
         <v>387</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="7">
         <v>967</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="7">
         <v>16</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="7">
         <v>406</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="7">
         <v>1031</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="8">
         <v>1636</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.7">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="10">
         <v>70</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="7">
         <v>91</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="7">
         <v>567</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="10">
         <v>4709</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="7">
         <v>5334</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="7">
         <v>11</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="7">
         <v>4711</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="7">
         <v>5379</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="8">
         <v>11941</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.7">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="10">
         <v>48</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="7">
         <v>58</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="7">
         <v>126</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="10">
         <v>2904</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="7">
         <v>1901</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="7">
         <v>11</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="7">
         <v>2928</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="7">
         <v>2324</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="8">
         <v>4050</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.7">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="10">
         <v>15</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="7">
         <v>6</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="7">
         <v>127</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="10">
         <v>770</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="7">
         <v>361</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="7">
         <v>11</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="7">
         <v>778</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="7">
         <v>363</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="8">
         <v>3386</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.7">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="10">
         <v>3</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="7">
         <v>2</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="7">
         <v>4</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="10">
         <v>128</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="7">
         <v>123</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="7">
         <v>23</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="7">
         <v>150</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="7">
         <v>147</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="8">
         <v>184</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.7">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="10">
         <v>19</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="7">
         <v>14</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="7">
         <v>36</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="10">
         <v>885</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="7">
         <v>707</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="7">
         <v>23</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="7">
         <v>926</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="7">
         <v>769</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="8">
         <v>1282</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.7">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="10">
         <v>25</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="7">
         <v>23</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="7">
         <v>57</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="10">
         <v>1508</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="7">
         <v>1142</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="7">
         <v>23</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="7">
         <v>1579</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="7">
         <v>1310</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="8">
         <v>1638</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.7">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="10">
         <v>55</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="7">
         <v>48</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="7">
         <v>143</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="10">
         <v>2640</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="7">
         <v>3217</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="7">
         <v>24</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="7">
         <v>2692</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="7">
         <v>3326</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="8">
         <v>4136</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.7">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="10">
         <v>26</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="7">
         <v>26</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="7">
         <v>40</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="10">
         <v>914</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="7">
         <v>909</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="7">
         <v>24</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="7">
         <v>1147</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="7">
         <v>1226</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="8">
         <v>1352</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.7">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="10">
         <v>76</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="7">
         <v>24</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="7">
         <v>52</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="10">
         <v>1103</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="7">
         <v>1421</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="7">
         <v>24</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="7">
         <v>1924</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="7">
         <v>1490</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="8">
         <v>1858</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.7">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="10">
         <v>37</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="7">
         <v>57</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="7">
         <v>131</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="10">
         <v>1476</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="7">
         <v>1198</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="7">
         <v>24</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="7">
         <v>1545</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="7">
         <v>1851</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="8">
         <v>4452</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.7">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="10">
         <v>11</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="7">
         <v>38</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="7">
         <v>122</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="10">
         <v>703</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="7">
         <v>1332</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="7">
         <v>24</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="7">
         <v>717</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="7">
         <v>1493</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="8">
         <v>4335</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.7">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="10">
         <v>7</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="7">
         <v>5</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="7">
         <v>29</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="10">
         <v>418</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="7">
         <v>343</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="7">
         <v>24</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="7">
         <v>438</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="7">
         <v>351</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="8">
         <v>873</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.7">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="10">
         <v>654</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="7">
         <v>813</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="7">
         <v>1873</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="10">
         <v>34542</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="7">
         <v>31363</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="7">
         <v>24</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="7">
         <v>36209</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="7">
         <v>35118</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="8">
         <v>39653</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="11">
         <v>6</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>6</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>36</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="11">
         <v>341</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="5">
         <v>343</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="5">
         <v>24</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="5">
         <v>354</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="5">
         <v>378</v>
       </c>
       <c r="K23" s="1">

--- a/output/dfs-bfs-results.xlsx
+++ b/output/dfs-bfs-results.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddffad9aba1e171b/Documents/GitHub/rush-hour-puzzle/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BC23980E-BAC7-4FA8-869F-E74B793B0390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:40009_{BC23980E-BAC7-4FA8-869F-E74B793B0390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{24B17B50-A14C-4358-B76F-64375AB58762}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="735" yWindow="735" windowWidth="15390" windowHeight="9533" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="7320" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dfs-bfs-results" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>input</t>
   </si>
@@ -99,16 +100,6 @@
   </si>
   <si>
     <t>dfs-nonpriority</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>depth(解の手数)</t>
-    <rPh sb="6" eb="7">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>テカズ</t>
-    </rPh>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -125,12 +116,29 @@
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>time(ms)</t>
+  </si>
+  <si>
+    <t>bfs</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>step(解の手数)</t>
+    <rPh sb="5" eb="6">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テカズ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +298,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -472,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -774,6 +798,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -903,7 +940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,6 +978,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1321,8 +1367,8 @@
   </sheetPr>
   <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -1332,27 +1378,27 @@
   <sheetData>
     <row r="1" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.7">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B3" s="18"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="9" t="s">
         <v>25</v>
       </c>
@@ -2032,4 +2078,331 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B7BEC8-596B-42FB-9BDE-5D1CF3ACB23F}">
+  <dimension ref="B1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="3" max="5" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B3" s="21"/>
+      <c r="C3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7">
+        <v>125</v>
+      </c>
+      <c r="D4" s="7">
+        <v>22</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7">
+        <v>73</v>
+      </c>
+      <c r="D5" s="7">
+        <v>23</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7">
+        <v>307</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10</v>
+      </c>
+      <c r="E6" s="8">
+        <v>7159</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7">
+        <v>45</v>
+      </c>
+      <c r="D7" s="7">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7">
+        <v>45</v>
+      </c>
+      <c r="D9" s="7">
+        <v>16</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>567</v>
+      </c>
+      <c r="D10" s="7">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8">
+        <v>11941</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7">
+        <v>126</v>
+      </c>
+      <c r="D11" s="7">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7">
+        <v>127</v>
+      </c>
+      <c r="D12" s="7">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <v>23</v>
+      </c>
+      <c r="E13" s="8">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7">
+        <v>36</v>
+      </c>
+      <c r="D14" s="7">
+        <v>23</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="7">
+        <v>57</v>
+      </c>
+      <c r="D15" s="7">
+        <v>23</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7">
+        <v>143</v>
+      </c>
+      <c r="D16" s="7">
+        <v>24</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="7">
+        <v>40</v>
+      </c>
+      <c r="D17" s="7">
+        <v>24</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="7">
+        <v>52</v>
+      </c>
+      <c r="D18" s="7">
+        <v>24</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="7">
+        <v>131</v>
+      </c>
+      <c r="D19" s="7">
+        <v>24</v>
+      </c>
+      <c r="E19" s="8">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>122</v>
+      </c>
+      <c r="D20" s="7">
+        <v>24</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7">
+        <v>29</v>
+      </c>
+      <c r="D21" s="7">
+        <v>24</v>
+      </c>
+      <c r="E21" s="8">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1873</v>
+      </c>
+      <c r="D22" s="7">
+        <v>24</v>
+      </c>
+      <c r="E22" s="8">
+        <v>39653</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5">
+        <v>36</v>
+      </c>
+      <c r="D23" s="5">
+        <v>24</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1388</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>